--- a/person-경술국적.xlsx
+++ b/person-경술국적.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25780" yWindow="460" windowWidth="27540" windowHeight="20740" tabRatio="500"/>
+    <workbookView xWindow="30140" yWindow="460" windowWidth="22420" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="305">
   <si>
     <t>url</t>
   </si>
@@ -157,6 +157,822 @@
   <si>
     <t>이규동</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG재단</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/LG.png</t>
+  </si>
+  <si>
+    <t>고영희</t>
+  </si>
+  <si>
+    <t>정미칠적</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B3%A0%EC%98%81%ED%9D%AC_(1849%EB%85%84)</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/KYG.jpg</t>
+  </si>
+  <si>
+    <t>고희경</t>
+  </si>
+  <si>
+    <t>고영희의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B3%A0%ED%9D%AC%EA%B2%BD_(1873%EB%85%84)</t>
+  </si>
+  <si>
+    <t>곽경배</t>
+  </si>
+  <si>
+    <t>의인</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/GWAKKYONGBAE.jpg</t>
+  </si>
+  <si>
+    <t>권영걸</t>
+  </si>
+  <si>
+    <t>권중현의손자</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B6%8C%EC%A4%91%ED%98%89</t>
+  </si>
+  <si>
+    <t>권영달</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B6%8C%EC%A4%91%ED%98%84</t>
+  </si>
+  <si>
+    <t>권영술</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B6%8C%EC%A4%91%ED%98%85</t>
+  </si>
+  <si>
+    <t>권영열</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B6%8C%EC%A4%91%ED%98%88</t>
+  </si>
+  <si>
+    <t>권영일</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B6%8C%EC%A4%91%ED%98%86</t>
+  </si>
+  <si>
+    <t>권영휼</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B6%8C%EC%A4%91%ED%98%87</t>
+  </si>
+  <si>
+    <t>권중현</t>
+  </si>
+  <si>
+    <t>일사오적</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-24_%E1%84%8B%E1%85%A9%E1%84%92%E1%85%AE_2.44.53.png</t>
+  </si>
+  <si>
+    <t>권태환</t>
+  </si>
+  <si>
+    <t>권중현의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B6%8C%ED%83%9C%ED%99%98</t>
+  </si>
+  <si>
+    <t>김샘</t>
+  </si>
+  <si>
+    <t>소녀상지킴이</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/KIMSAM.jpg</t>
+  </si>
+  <si>
+    <t>니말</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/NIMAL.JPG</t>
+  </si>
+  <si>
+    <t>류석춘</t>
+  </si>
+  <si>
+    <t>일베 회원</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/LIUSEOKCHUN.jpg</t>
+  </si>
+  <si>
+    <t>민병석</t>
+  </si>
+  <si>
+    <t>경술국적</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EB%B3%91%EC%84%9D</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Min_Byeong-seok_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>민복기</t>
+  </si>
+  <si>
+    <t>친일독재대법원장</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EB%B3%B5%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/minbokki.jpeg</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>민병석의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%ED%99%8D%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>박병진</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/%E1%84%86%E1%85%B5%E1%84%83%E1%85%A6%E1%84%89%E1%85%B3%E1%84%80%E1%85%A8%E1%84%80%E1%85%A9%E1%86%A8-3_xeqxvgI.jpg</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/PARKBYUNGJIN_20wwA1F.jpg</t>
+  </si>
+  <si>
+    <t>박부양</t>
+  </si>
+  <si>
+    <t>박제순의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EB%B6%80%EC%96%91</t>
+  </si>
+  <si>
+    <t>박승유</t>
+  </si>
+  <si>
+    <t>박제순의손자</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EC%8A%B9%EC%9C%A0_(1924%EB%85%84)</t>
+  </si>
+  <si>
+    <t>박제순</t>
+  </si>
+  <si>
+    <t>을사오적</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EC%A0%9C%EC%88%9C</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Park_Che-soon.JPG</t>
+  </si>
+  <si>
+    <t>송병준</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%86%A1%EB%B3%91%EC%A4%80</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Song_Byeong-jun.jpg</t>
+  </si>
+  <si>
+    <t>송종헌</t>
+  </si>
+  <si>
+    <t>송병준의아들</t>
+  </si>
+  <si>
+    <t>순정효황후윤씨</t>
+  </si>
+  <si>
+    <t>순종의아내</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%88%9C%EC%A0%95%ED%9A%A8%ED%99%A9%ED%9B%84</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Empress_Sunjeong.jpg</t>
+  </si>
+  <si>
+    <t>신본기</t>
+  </si>
+  <si>
+    <t>자이언츠 야구선수</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/SHINBONJI.jpeg</t>
+  </si>
+  <si>
+    <t>위르겐 힌츠페터</t>
+  </si>
+  <si>
+    <t>광주민주화 운동의 기록자</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/HINTS.jpg</t>
+  </si>
+  <si>
+    <t>윤덕영</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EC%A4%91%EC%9D%91</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Cho_Jung-eung.JPG</t>
+  </si>
+  <si>
+    <t>윤무구</t>
+  </si>
+  <si>
+    <t>윤홍섭의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9C%A4%EB%AC%B4%EA%B5%AC</t>
+  </si>
+  <si>
+    <t>윤의섭</t>
+  </si>
+  <si>
+    <t>윤택영의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9C%A4%EC%9D%98%EC%84%AD_(%EC%A1%B0%EC%84%A0%EA%B7%80%EC%A1%B1)</t>
+  </si>
+  <si>
+    <t>윤택영</t>
+  </si>
+  <si>
+    <t>윤덕영의동생</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9C%A4%ED%83%9D%EC%98%81</t>
+  </si>
+  <si>
+    <t>윤홍섭</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9C%A4%ED%99%8D%EC%84%AD</t>
+  </si>
+  <si>
+    <t>이건영</t>
+  </si>
+  <si>
+    <t>독립운동가</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/이시영_(1868년)</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%8C%E1%85%A5%E1%86%AB_10.32.30.png</t>
+  </si>
+  <si>
+    <t>이경자</t>
+  </si>
+  <si>
+    <t>이지용의손자</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%A7%80%EC%9A%A17</t>
+  </si>
+  <si>
+    <t>이경주</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%A7%80%EC%9A%A12</t>
+  </si>
+  <si>
+    <t>이관용</t>
+  </si>
+  <si>
+    <t>이재곤의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EA%B4%80%EC%9A%A9_(%EB%8F%85%EB%A6%BD%EC%9A%B4%EB%8F%99%EA%B0%80)</t>
+  </si>
+  <si>
+    <t>이광국</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EA%B4%91%EA%B5%AD</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%92%E1%85%AE_4.45.43.png</t>
+  </si>
+  <si>
+    <t>이광민</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EA%B4%91%EB%AF%BC</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%92%E1%85%AE_4.47.43.png</t>
+  </si>
+  <si>
+    <t>이규동</t>
+  </si>
+  <si>
+    <t>이회영의 아들</t>
+  </si>
+  <si>
+    <t>이규룡</t>
+  </si>
+  <si>
+    <t>이규면</t>
+  </si>
+  <si>
+    <t>이규붕</t>
+  </si>
+  <si>
+    <t>이규서</t>
+  </si>
+  <si>
+    <t>이석영의아들</t>
+  </si>
+  <si>
+    <t>이규준</t>
+  </si>
+  <si>
+    <t>이규창</t>
+  </si>
+  <si>
+    <t>이규학</t>
+  </si>
+  <si>
+    <t>이규훈</t>
+  </si>
+  <si>
+    <t>이근상</t>
+  </si>
+  <si>
+    <t>이근택의동생</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EA%B7%BC%EC%83%81_(1874%EB%85%84)</t>
+  </si>
+  <si>
+    <t>이근택</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EA%B7%BC%ED%83%9D</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Lee_Geun-taek_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>이근호</t>
+  </si>
+  <si>
+    <t>이근택의형</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EA%B7%BC%ED%98%B8_(%EC%A1%B0%EC%84%A0)</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Lee_Geun-ho_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>이기원</t>
+  </si>
+  <si>
+    <t>위안부 모욕</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/leegiwen.jpg</t>
+  </si>
+  <si>
+    <t>이동훈</t>
+  </si>
+  <si>
+    <t>이근호의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EB%8F%99%ED%9B%88_(%EC%A1%B0%EC%84%A0%EA%B7%80%EC%A1%B1)</t>
+  </si>
+  <si>
+    <t>이문주</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%A7%80%EC%9A%A11</t>
+  </si>
+  <si>
+    <t>이범증</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/LEEBEOMJOONG.jpg</t>
+  </si>
+  <si>
+    <t>이병길</t>
+  </si>
+  <si>
+    <t>이항구의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EB%B3%91%EA%B8%B8</t>
+  </si>
+  <si>
+    <t>이병무</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EB%B3%91%EB%AC%B4</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Lee_Byeong-mu_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>이병주</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/이완용</t>
+  </si>
+  <si>
+    <t>이병철</t>
+  </si>
+  <si>
+    <t>이병호</t>
+  </si>
+  <si>
+    <t>이병화</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EB%B3%91%ED%99%94</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-15_%E1%84%8B%E1%85%A9%E1%84%92%E1%85%AE_7.27.52.png</t>
+  </si>
+  <si>
+    <t>이병희</t>
+  </si>
+  <si>
+    <t>이봉희</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EB%B4%89%ED%9D%AC</t>
+  </si>
+  <si>
+    <t>이상동</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%83%81%EB%8F%99</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%92%E1%85%AE_4.31.11.png</t>
+  </si>
+  <si>
+    <t>이상룡</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%83%81%EB%A3%A1_(1858%EB%85%84)</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/LISANGYONG.jpg</t>
+  </si>
+  <si>
+    <t>이석영</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%84%9D%EC%98%81_(%EB%8F%85%EB%A6%BD%EC%9A%B4%EB%8F%99%EA%B0%80)</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%8C%E1%85%A5%E1%86%AB_10.34.18.png</t>
+  </si>
+  <si>
+    <t>이시영</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%8B%9C%EC%98%81_(1868%EB%85%84)</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%8C%E1%85%A5%E1%86%AB_10.08.58.png</t>
+  </si>
+  <si>
+    <t>이영주</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%98%81%EC%A3%BC_(1918%EB%85%84)</t>
+  </si>
+  <si>
+    <t>이완용</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Lee_Wan-yong_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>이운형</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%9A%B4%ED%98%95</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%92%E1%85%AE_4.51.39.png</t>
+  </si>
+  <si>
+    <t>이원용</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%9B%90%EC%9A%A9_(1889%EB%85%84)</t>
+  </si>
+  <si>
+    <t>이장훈</t>
+  </si>
+  <si>
+    <t>이근상의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%9E%A5%ED%9B%88_(%EC%A1%B0%EC%84%A0%EA%B7%80%EC%A1%B1)</t>
+  </si>
+  <si>
+    <t>이재곤</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%9E%AC%EA%B3%A4_(1859%EB%85%84)</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Lee_Jae-gon_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>이종걸</t>
+  </si>
+  <si>
+    <t>이회영의손자</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/LEEJONGGEL.jpeg</t>
+  </si>
+  <si>
+    <t>이종찬</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/LEEJONGCHAN.jpeg</t>
+  </si>
+  <si>
+    <t>이준형</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%A4%80%ED%98%95_(1875%EB%85%84)</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/LEEJUNHYONG.jpg</t>
+  </si>
+  <si>
+    <t>이지문</t>
+  </si>
+  <si>
+    <t>공익제보자</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/LEEJIMOON.jpeg</t>
+  </si>
+  <si>
+    <t>이지용</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%A7%80%EC%9A%A9</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Lee_Ji-yong_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>이진</t>
+  </si>
+  <si>
+    <t>국회의원,기업가</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/LEEJIN_IZI1ImL.jpg</t>
+  </si>
+  <si>
+    <t>이창훈</t>
+  </si>
+  <si>
+    <t>이근택의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%B0%BD%ED%9B%88_(%EC%A1%B0%EC%84%A0%EA%B7%80%EC%A1%B1)</t>
+  </si>
+  <si>
+    <t>이철영</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%ED%9A%8C%EC%98%81</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%8C%E1%85%A5%E1%86%AB_10.35.29_Pmw1PWw.png</t>
+  </si>
+  <si>
+    <t>이철주</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%A7%80%EC%9A%A18</t>
+  </si>
+  <si>
+    <t>이항구</t>
+  </si>
+  <si>
+    <t>이완용의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%ED%95%AD%EA%B5%AC</t>
+  </si>
+  <si>
+    <t>이해국</t>
+  </si>
+  <si>
+    <t>이재곤의손자</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%ED%95%B4%EA%B5%AD</t>
+  </si>
+  <si>
+    <t>이해문</t>
+  </si>
+  <si>
+    <t>이지용의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%A7%80%EC%9A%A15</t>
+  </si>
+  <si>
+    <t>이해충</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%A7%80%EC%9A%A10</t>
+  </si>
+  <si>
+    <t>이형국</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%ED%98%95%EA%B5%AD</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%92%E1%85%AE_4.49.49.png</t>
+  </si>
+  <si>
+    <t>이호영</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/이회영</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-20_%E1%84%8B%E1%85%A9%E1%84%8C%E1%85%A5%E1%86%AB_10.37.00.png</t>
+  </si>
+  <si>
+    <t>이호준</t>
+  </si>
+  <si>
+    <t>이완용의양아버지</t>
+  </si>
+  <si>
+    <t>이홍묵</t>
+  </si>
+  <si>
+    <t>이병무의양자</t>
+  </si>
+  <si>
+    <t>이홍주</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%A7%80%EC%9A%A14</t>
+  </si>
+  <si>
+    <t>이회영</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/leehuiyong_FQHtAj1.jpg</t>
+  </si>
+  <si>
+    <t>임낙호</t>
+  </si>
+  <si>
+    <t>임선준의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9E%84%EB%82%99%ED%98%B8</t>
+  </si>
+  <si>
+    <t>임선준</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9E%84%EC%84%A0%EC%A4%80</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Lim_Sun-jun_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>정연승</t>
+  </si>
+  <si>
+    <t>정의로운 사람</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/JengYeanSong.jpg</t>
+  </si>
+  <si>
+    <t>조대호</t>
+  </si>
+  <si>
+    <t>조중웅의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EB%8C%80%ED%98%B8</t>
+  </si>
+  <si>
+    <t>조민희</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EB%AF%BC%ED%9D%AC_(1859%EB%85%84)</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/10/Cho_Min-hui_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>조용갑</t>
+  </si>
+  <si>
+    <t>동양의 파바로티</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/CHOYONGGAB.jpg</t>
+  </si>
+  <si>
+    <t>조용호</t>
+  </si>
+  <si>
+    <t>조민희의손자</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EC%9A%A9%ED%98%B8_(1918%EB%85%84)</t>
+  </si>
+  <si>
+    <t>조원흥</t>
+  </si>
+  <si>
+    <t>조대호의양장</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EC%9B%90%ED%9D%A5</t>
+  </si>
+  <si>
+    <t>조중수</t>
+  </si>
+  <si>
+    <t>조민희의아들</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EC%A4%91%EC%88%98</t>
+  </si>
+  <si>
+    <t>조중응</t>
+  </si>
+  <si>
+    <t>최재형</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/CHOIJAEHYONG.jpg</t>
+  </si>
+  <si>
+    <t>최현호</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/08/choihyunho.jpg</t>
+  </si>
+  <si>
+    <t>허은</t>
+  </si>
+  <si>
+    <t>/media/person_picture/2017/09/%E1%84%89%E1%85%B3%E1%84%8F%E1%85%B3%E1%84%85%E1%85%B5%E1%86%AB%E1%84%89%E1%85%A3%E1%86%BA_2017-09-17_%E1%84%8B%E1%85%A9%E1%84%92%E1%85%AE_3.00.07.png</t>
   </si>
 </sst>
 </file>
@@ -200,9 +1016,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -539,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -604,87 +1422,2202 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1849</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1873</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1916</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1903</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1911</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1906</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1909</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1854</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1875</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1955</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1913</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1883</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1905</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1924</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1858</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1857</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1876</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1894</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1989</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1873</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1915</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1912</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1876</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1853</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1941</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1917</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1891</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1903</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1926</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1887</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1893</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1912</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1899</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1913</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1896</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1896</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1874</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1865</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1860</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1894</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1912</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1944</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1905</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1864</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1913</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1906</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1868</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1865</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1858</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1855</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1868</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1918</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1858</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1891</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1889</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1917</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1859</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1957</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1936</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1875</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1968</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1870</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1942</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1890</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1863</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1946</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1881</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1903</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1888</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1883</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1870</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1821</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1895</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1867</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1896</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1861</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1893</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1859</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1970</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1918</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1924</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1894</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1860</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1860</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1980</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1906</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C108" s="1">
         <v>1936</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C109" s="1">
         <v>1957</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>32</v>
       </c>
     </row>
